--- a/Noutput.xlsx
+++ b/Noutput.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Epoch:20, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+          <t>Epoch:79, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -462,7 +462,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Epoch:19, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+          <t>Epoch:78, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -471,7 +471,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Epoch:18, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+          <t>Epoch:77, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -480,7 +480,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Epoch:17, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+          <t>Epoch:76, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -489,7 +489,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Epoch:16, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+          <t>Epoch:75, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Epoch:15, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+          <t>Epoch:74, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -507,7 +507,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Epoch:14, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+          <t>Epoch:73, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -516,7 +516,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Epoch:13, test_Acc: 23.46, test_bacc: 22.65, test_f1: 12.50</t>
+          <t>Epoch:72, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -525,7 +525,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Epoch:12, test_Acc: 23.46, test_bacc: 22.65, test_f1: 12.50</t>
+          <t>Epoch:71, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -534,7 +534,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Epoch:11, test_Acc: 23.46, test_bacc: 22.65, test_f1: 12.50</t>
+          <t>Epoch:70, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -543,7 +543,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Epoch:10, test_Acc: 23.46, test_bacc: 22.65, test_f1: 12.50</t>
+          <t>Epoch:69, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -552,7 +552,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Epoch:9, test_Acc: 23.46, test_bacc: 22.65, test_f1: 12.50</t>
+          <t>Epoch:68, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -561,7 +561,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Epoch:8, test_Acc: 23.46, test_bacc: 22.65, test_f1: 12.50</t>
+          <t>Epoch:67, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -570,7 +570,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Epoch:7, test_Acc: 23.46, test_bacc: 22.65, test_f1: 12.50</t>
+          <t>Epoch:66, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -579,7 +579,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Epoch:6, test_Acc: 23.46, test_bacc: 22.65, test_f1: 12.50</t>
+          <t>Epoch:65, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -588,7 +588,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Epoch:5, test_Acc: 23.46, test_bacc: 22.65, test_f1: 12.50</t>
+          <t>Epoch:64, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -597,7 +597,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Epoch:4, test_Acc: 23.46, test_bacc: 22.65, test_f1: 12.50</t>
+          <t>Epoch:63, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -606,7 +606,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Epoch:3, test_Acc: 23.46, test_bacc: 22.65, test_f1: 12.50</t>
+          <t>Epoch:62, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -615,7 +615,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Epoch:2, test_Acc: 23.46, test_bacc: 22.65, test_f1: 12.50</t>
+          <t>Epoch:61, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -624,7 +624,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Epoch:1, test_Acc: 23.46, test_bacc: 22.65, test_f1: 12.50</t>
+          <t>Epoch:60, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -633,406 +633,937 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Epoch:0, test_Acc: 23.46, test_bacc: 22.58, test_f1: 12.23</t>
+          <t>Epoch:59, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Epoch:58, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Epoch:57, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Epoch:56, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Epoch:55, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Epoch:54, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Epoch:53, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Epoch:52, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Epoch:51, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Epoch:50, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Epoch:49, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Epoch:48, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Epoch:47, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Epoch:46, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Epoch:45, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Epoch:44, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Epoch:43, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Epoch:42, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Epoch:41, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Epoch:40, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Epoch:39, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Epoch:38, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Epoch:37, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Epoch:36, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Epoch:35, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Epoch:34, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Epoch:33, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Epoch:32, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Epoch:31, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Epoch:30, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Epoch:29, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Epoch:28, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Epoch:27, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Epoch:26, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Epoch:25, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Epoch:24, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Epoch:23, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Epoch:22, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Epoch:21, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Epoch:20, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Epoch:19, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Epoch:18, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Epoch:17, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Epoch:16, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Epoch:15, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Epoch:14, test_Acc: 22.81, test_bacc: 22.02, test_f1: 13.25</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Epoch:13, test_Acc: 23.46, test_bacc: 22.65, test_f1: 12.50</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Epoch:12, test_Acc: 23.46, test_bacc: 22.65, test_f1: 12.50</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Epoch:11, test_Acc: 23.46, test_bacc: 22.65, test_f1: 12.50</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Epoch:10, test_Acc: 23.46, test_bacc: 22.65, test_f1: 12.50</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Epoch:9, test_Acc: 23.46, test_bacc: 22.65, test_f1: 12.50</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Epoch:8, test_Acc: 23.46, test_bacc: 22.65, test_f1: 12.50</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Epoch:7, test_Acc: 23.46, test_bacc: 22.65, test_f1: 12.50</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Epoch:6, test_Acc: 23.46, test_bacc: 22.65, test_f1: 12.50</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Epoch:5, test_Acc: 23.46, test_bacc: 22.65, test_f1: 12.50</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Epoch:4, test_Acc: 23.46, test_bacc: 22.65, test_f1: 12.50</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Epoch:3, test_Acc: 23.46, test_bacc: 22.65, test_f1: 12.50</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Epoch:2, test_Acc: 23.46, test_bacc: 22.65, test_f1: 12.50</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Epoch:1, test_Acc: 23.46, test_bacc: 22.65, test_f1: 12.50</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Epoch:0, test_Acc: 23.46, test_bacc: 22.58, test_f1: 12.23</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr">
         <is>
           <t>withAug</t>
         </is>
       </c>
-      <c r="C23" t="b">
+      <c r="C82" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr">
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="inlineStr">
         <is>
           <t>AugDirect</t>
         </is>
       </c>
-      <c r="C24" t="n">
+      <c r="C83" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr">
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="inlineStr">
         <is>
           <t>method_name</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>GIN</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr">
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr">
         <is>
           <t>seed</t>
         </is>
       </c>
-      <c r="C26" t="n">
+      <c r="C85" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr">
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr">
         <is>
           <t>IsDirectedData</t>
         </is>
       </c>
-      <c r="C27" t="b">
+      <c r="C86" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr">
+    <row r="87">
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="inlineStr">
         <is>
           <t>dataset</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>WikipediaNetwork/chameleon</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr">
+    <row r="88">
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="inlineStr">
         <is>
           <t>undirect_dataset</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>CiteSeer</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr">
+    <row r="89">
+      <c r="A89" t="inlineStr"/>
+      <c r="B89" t="inlineStr">
         <is>
           <t>MakeImbalance</t>
         </is>
       </c>
-      <c r="C30" t="b">
+      <c r="C89" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr">
+    <row r="90">
+      <c r="A90" t="inlineStr"/>
+      <c r="B90" t="inlineStr">
         <is>
           <t>CustomizeMask</t>
         </is>
       </c>
-      <c r="C31" t="b">
+      <c r="C90" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr">
+    <row r="91">
+      <c r="A91" t="inlineStr"/>
+      <c r="B91" t="inlineStr">
         <is>
           <t>heads</t>
         </is>
       </c>
-      <c r="C32" t="n">
+      <c r="C91" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr">
+    <row r="92">
+      <c r="A92" t="inlineStr"/>
+      <c r="B92" t="inlineStr">
         <is>
           <t>log_root</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>../logs/</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr">
+    <row r="93">
+      <c r="A93" t="inlineStr"/>
+      <c r="B93" t="inlineStr">
         <is>
           <t>log_path</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr">
+    <row r="94">
+      <c r="A94" t="inlineStr"/>
+      <c r="B94" t="inlineStr">
         <is>
           <t>data_path</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>../dataset/data/tmp/</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr">
+    <row r="95">
+      <c r="A95" t="inlineStr"/>
+      <c r="B95" t="inlineStr">
         <is>
           <t>epochs</t>
         </is>
       </c>
-      <c r="C36" t="n">
+      <c r="C95" t="n">
         <v>1500</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr">
+    <row r="96">
+      <c r="A96" t="inlineStr"/>
+      <c r="B96" t="inlineStr">
         <is>
           <t>num_filter</t>
         </is>
       </c>
-      <c r="C37" t="n">
+      <c r="C96" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr">
+    <row r="97">
+      <c r="A97" t="inlineStr"/>
+      <c r="B97" t="inlineStr">
         <is>
           <t>p_q</t>
         </is>
       </c>
-      <c r="C38" t="n">
+      <c r="C97" t="n">
         <v>0.95</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr">
+    <row r="98">
+      <c r="A98" t="inlineStr"/>
+      <c r="B98" t="inlineStr">
         <is>
           <t>p_inter</t>
         </is>
       </c>
-      <c r="C39" t="n">
+      <c r="C98" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr"/>
-      <c r="B40" t="inlineStr">
+    <row r="99">
+      <c r="A99" t="inlineStr"/>
+      <c r="B99" t="inlineStr">
         <is>
           <t>dropout</t>
         </is>
       </c>
-      <c r="C40" t="b">
+      <c r="C99" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr">
+    <row r="100">
+      <c r="A100" t="inlineStr"/>
+      <c r="B100" t="inlineStr">
         <is>
           <t>debug</t>
         </is>
       </c>
-      <c r="C41" t="b">
+      <c r="C100" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr"/>
-      <c r="B42" t="inlineStr">
+    <row r="101">
+      <c r="A101" t="inlineStr"/>
+      <c r="B101" t="inlineStr">
         <is>
           <t>new_setting</t>
         </is>
       </c>
-      <c r="C42" t="b">
+      <c r="C101" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr">
+    <row r="102">
+      <c r="A102" t="inlineStr"/>
+      <c r="B102" t="inlineStr">
         <is>
           <t>layer</t>
         </is>
       </c>
-      <c r="C43" t="n">
+      <c r="C102" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr"/>
-      <c r="B44" t="inlineStr">
+    <row r="103">
+      <c r="A103" t="inlineStr"/>
+      <c r="B103" t="inlineStr">
         <is>
           <t>lr</t>
         </is>
       </c>
-      <c r="C44" t="n">
+      <c r="C103" t="n">
         <v>0.005</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr"/>
-      <c r="B45" t="inlineStr">
+    <row r="104">
+      <c r="A104" t="inlineStr"/>
+      <c r="B104" t="inlineStr">
         <is>
           <t>l2</t>
         </is>
       </c>
-      <c r="C45" t="n">
+      <c r="C104" t="n">
         <v>0.0005</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr"/>
-      <c r="B46" t="inlineStr">
+    <row r="105">
+      <c r="A105" t="inlineStr"/>
+      <c r="B105" t="inlineStr">
         <is>
           <t>to_undirected</t>
         </is>
       </c>
-      <c r="C46" t="b">
+      <c r="C105" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr"/>
-      <c r="B47" t="inlineStr">
+    <row r="106">
+      <c r="A106" t="inlineStr"/>
+      <c r="B106" t="inlineStr">
         <is>
           <t>alpha</t>
         </is>
       </c>
-      <c r="C47" t="n">
+      <c r="C106" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr"/>
-      <c r="B48" t="inlineStr">
+    <row r="107">
+      <c r="A107" t="inlineStr"/>
+      <c r="B107" t="inlineStr">
         <is>
           <t>randomseed</t>
         </is>
       </c>
-      <c r="C48" t="n">
+      <c r="C107" t="n">
         <v>-1</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr"/>
-      <c r="B49" t="inlineStr">
+    <row r="108">
+      <c r="A108" t="inlineStr"/>
+      <c r="B108" t="inlineStr">
         <is>
           <t>imb_ratio</t>
         </is>
       </c>
-      <c r="C49" t="n">
+      <c r="C108" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr"/>
-      <c r="B50" t="inlineStr">
+    <row r="109">
+      <c r="A109" t="inlineStr"/>
+      <c r="B109" t="inlineStr">
         <is>
           <t>n_layer</t>
         </is>
       </c>
-      <c r="C50" t="n">
+      <c r="C109" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr"/>
-      <c r="B51" t="inlineStr">
+    <row r="110">
+      <c r="A110" t="inlineStr"/>
+      <c r="B110" t="inlineStr">
         <is>
           <t>feat_dim</t>
         </is>
       </c>
-      <c r="C51" t="n">
+      <c r="C110" t="n">
         <v>64</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr"/>
-      <c r="B52" t="inlineStr">
+    <row r="111">
+      <c r="A111" t="inlineStr"/>
+      <c r="B111" t="inlineStr">
         <is>
           <t>warmup</t>
         </is>
       </c>
-      <c r="C52" t="n">
+      <c r="C111" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr"/>
-      <c r="B53" t="inlineStr">
+    <row r="112">
+      <c r="A112" t="inlineStr"/>
+      <c r="B112" t="inlineStr">
         <is>
           <t>epoch</t>
         </is>
       </c>
-      <c r="C53" t="n">
+      <c r="C112" t="n">
         <v>900</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr"/>
-      <c r="B54" t="inlineStr">
+    <row r="113">
+      <c r="A113" t="inlineStr"/>
+      <c r="B113" t="inlineStr">
         <is>
           <t>tau</t>
         </is>
       </c>
-      <c r="C54" t="n">
+      <c r="C113" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr"/>
-      <c r="B55" t="inlineStr">
+    <row r="114">
+      <c r="A114" t="inlineStr"/>
+      <c r="B114" t="inlineStr">
         <is>
           <t>max</t>
         </is>
       </c>
-      <c r="C55" t="b">
+      <c r="C114" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr"/>
-      <c r="B56" t="inlineStr">
+    <row r="115">
+      <c r="A115" t="inlineStr"/>
+      <c r="B115" t="inlineStr">
         <is>
           <t>no_mask</t>
         </is>
       </c>
-      <c r="C56" t="b">
+      <c r="C115" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr"/>
-      <c r="B57" t="inlineStr">
+    <row r="116">
+      <c r="A116" t="inlineStr"/>
+      <c r="B116" t="inlineStr">
         <is>
           <t>gdc</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>ppr</t>
         </is>
